--- a/dtpu_configurations/only_integer16/50mhz/mxu_10x10/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_10x10/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>2.5843610763549805</v>
+        <v>2.7961525917053223</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.012087886221706867</v>
+        <v>0.01770506054162979</v>
       </c>
     </row>
   </sheetData>
